--- a/All Graphs/Graphs/GraphValues.xlsx
+++ b/All Graphs/Graphs/GraphValues.xlsx
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="mmmm d"/>
     <numFmt numFmtId="165" formatCode="mmmm dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -50,19 +50,33 @@
     </font>
     <font>
       <b/>
+      <sz val="10.0"/>
     </font>
     <font>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -84,14 +98,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -343,391 +358,221 @@
         <v>44280.0</v>
       </c>
       <c r="B2" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C2" s="4">
-        <v>9.8</v>
-      </c>
-      <c r="D2" s="4">
-        <v>9.8</v>
-      </c>
-      <c r="E2" s="4">
-        <v>9.8</v>
-      </c>
-      <c r="F2" s="4">
-        <v>9.8</v>
-      </c>
-      <c r="G2" s="4">
-        <v>9.8</v>
-      </c>
+        <v>0.19</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>44281.0</v>
       </c>
       <c r="B3" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D3" s="4">
-        <v>9.8</v>
-      </c>
-      <c r="E3" s="4">
-        <v>9.8</v>
-      </c>
-      <c r="F3" s="4">
-        <v>9.8</v>
-      </c>
-      <c r="G3" s="4">
-        <v>9.8</v>
-      </c>
+        <v>0.165</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>44282.0</v>
       </c>
       <c r="B4" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C4" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>9.8</v>
-      </c>
-      <c r="E4" s="4">
-        <v>9.8</v>
-      </c>
-      <c r="F4" s="4">
-        <v>9.8</v>
-      </c>
-      <c r="G4" s="4">
-        <v>9.8</v>
-      </c>
+        <v>0.166</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>44283.0</v>
       </c>
       <c r="B5" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C5" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D5" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="E5" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="F5" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="G5" s="3">
-        <v>9.8</v>
-      </c>
+        <v>0.167</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>44284.0</v>
       </c>
-      <c r="B6" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D6" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="E6" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="F6" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="G6" s="3">
-        <v>9.8</v>
-      </c>
+      <c r="B6" s="5">
+        <v>0.155</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>44285.0</v>
       </c>
-      <c r="B7" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D7" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="E7" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="F7" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="G7" s="3">
-        <v>9.8</v>
-      </c>
+      <c r="B7" s="5">
+        <v>0.171</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>44286.0</v>
       </c>
-      <c r="B8" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C8" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D8" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="E8" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="F8" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="G8" s="3">
-        <v>9.8</v>
-      </c>
+      <c r="B8" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="6">
         <v>44287.0</v>
       </c>
       <c r="B9" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C9" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D9" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="E9" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="F9" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="G9" s="3">
-        <v>9.8</v>
-      </c>
+        <v>0.154</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="6">
         <v>44288.0</v>
       </c>
       <c r="B10" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D10" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="E10" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="F10" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="G10" s="3">
-        <v>9.8</v>
-      </c>
+        <v>0.142</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="6">
         <v>44289.0</v>
       </c>
-      <c r="B11" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C11" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="E11" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="F11" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="G11" s="3">
-        <v>9.8</v>
-      </c>
+      <c r="B11" s="7">
+        <v>0.136</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" s="6">
         <v>44290.0</v>
       </c>
       <c r="B12" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D12" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="E12" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9.8</v>
-      </c>
+        <v>0.134</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="6">
         <v>44291.0</v>
       </c>
-      <c r="B13" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C13" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D13" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="E13" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="F13" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="G13" s="3">
-        <v>9.8</v>
-      </c>
+      <c r="B13" s="5">
+        <v>0.144</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="6">
         <v>44292.0</v>
       </c>
       <c r="B14" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C14" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D14" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>9.8</v>
-      </c>
+        <v>0.136</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="6">
         <v>44293.0</v>
       </c>
       <c r="B15" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C15" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D15" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="E15" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="F15" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="G15" s="3">
-        <v>9.8</v>
-      </c>
+        <v>0.136</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="6">
         <v>44294.0</v>
       </c>
       <c r="B16" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C16" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D16" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="E16" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="F16" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="G16" s="3">
-        <v>9.8</v>
-      </c>
+        <v>0.126</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="6">
         <v>44295.0</v>
       </c>
       <c r="B17" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C17" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D17" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="E17" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="F17" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="G17" s="3">
-        <v>9.8</v>
-      </c>
+        <v>0.139</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" s="2">
         <v>44296.0</v>
       </c>
       <c r="B18" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="C18" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D18" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="E18" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="F18" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="G18" s="3">
-        <v>9.8</v>
-      </c>
+        <v>0.13</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/All Graphs/Graphs/GraphValues.xlsx
+++ b/All Graphs/Graphs/GraphValues.xlsx
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="mmmm d"/>
     <numFmt numFmtId="165" formatCode="mmmm dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -54,11 +54,6 @@
     </font>
     <font>
       <sz val="10.0"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -85,28 +80,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,224 +349,394 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>44280.0</v>
+        <v>43915.0</v>
       </c>
       <c r="B2" s="3">
         <v>0.19</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="C2" s="3">
+        <v>0.0299</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.0577</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.0125</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0224</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.0341</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>44281.0</v>
+        <v>43916.0</v>
       </c>
       <c r="B3" s="3">
         <v>0.165</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="C3" s="4">
+        <v>0.0322</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.0572</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0135</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0216</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.0327</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>44282.0</v>
+        <v>43917.0</v>
       </c>
       <c r="B4" s="3">
         <v>0.166</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="3">
+        <v>0.0317</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.0562</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.0126</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.0209</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.0332</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>44283.0</v>
+        <v>43918.0</v>
       </c>
       <c r="B5" s="3">
         <v>0.167</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="C5" s="3">
+        <v>0.029</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.0589</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.0154</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.0224</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.0427</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>44284.0</v>
-      </c>
-      <c r="B6" s="5">
+        <v>43919.0</v>
+      </c>
+      <c r="B6" s="4">
         <v>0.155</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="C6" s="4">
+        <v>0.0248</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.0636</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.016</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.0206</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.0427</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>44285.0</v>
-      </c>
-      <c r="B7" s="5">
+        <v>43920.0</v>
+      </c>
+      <c r="B7" s="4">
         <v>0.171</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="3">
+        <v>0.0298</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.0615</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.0133</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.023</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.0369</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>44286.0</v>
-      </c>
-      <c r="B8" s="5">
+        <v>43921.0</v>
+      </c>
+      <c r="B8" s="4">
         <v>0.16</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="C8" s="3">
+        <v>0.0286</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.0559</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.0145</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.0262</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.0313</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6">
-        <v>44287.0</v>
+        <v>43922.0</v>
       </c>
       <c r="B9" s="3">
         <v>0.154</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="C9" s="3">
+        <v>0.0313</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.0609</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.0125</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.0244</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.0355</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6">
-        <v>44288.0</v>
+        <v>43923.0</v>
       </c>
       <c r="B10" s="3">
         <v>0.142</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="C10" s="5">
+        <v>0.0316</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.0577</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.0141</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.0287</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.0334</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6">
-        <v>44289.0</v>
-      </c>
-      <c r="B11" s="7">
+        <v>43924.0</v>
+      </c>
+      <c r="B11" s="4">
         <v>0.136</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="C11" s="3">
+        <v>0.0314</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.0625</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.0137</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.0303</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.034</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="6">
-        <v>44290.0</v>
+        <v>43925.0</v>
       </c>
       <c r="B12" s="3">
         <v>0.134</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="3">
+        <v>0.027</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.0617</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.0132</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.0278</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.0348</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6">
-        <v>44291.0</v>
-      </c>
-      <c r="B13" s="5">
+        <v>43926.0</v>
+      </c>
+      <c r="B13" s="4">
         <v>0.144</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="3">
+        <v>0.0271</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.059</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.0139</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.0257</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.0352</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6">
-        <v>44292.0</v>
+        <v>43927.0</v>
       </c>
       <c r="B14" s="3">
         <v>0.136</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="C14" s="3">
+        <v>0.0293</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.0604</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.0131</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.0236</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.0357</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6">
-        <v>44293.0</v>
+        <v>43928.0</v>
       </c>
       <c r="B15" s="3">
         <v>0.136</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="C15" s="3">
+        <v>0.0285</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.0611</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.0133</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.0254</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.0347</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6">
-        <v>44294.0</v>
+        <v>43929.0</v>
       </c>
       <c r="B16" s="3">
         <v>0.126</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="C16" s="3">
+        <v>0.0299</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.0573</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.0145</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.0209</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.036</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6">
-        <v>44295.0</v>
+        <v>43930.0</v>
       </c>
       <c r="B17" s="3">
         <v>0.139</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="C17" s="3">
+        <v>0.0329</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.057</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.0134</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.0217</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.0357</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>44296.0</v>
+        <v>43931.0</v>
       </c>
       <c r="B18" s="3">
         <v>0.13</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="C18" s="3">
+        <v>0.0276</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.0623</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.0132</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.0254</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.0368</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
